--- a/data/trans_dic/P14B23_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14B23_2016_2023-Edad-trans_dic.xlsx
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00616289611545525</v>
+        <v>0.006577649323941415</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006027811605279041</v>
+        <v>0.005960569521418742</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00119942639879343</v>
+        <v>0.001202141370647216</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009692616233484929</v>
+        <v>0.009773290001328309</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02172657500723053</v>
+        <v>0.01842227214541427</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05536850380673855</v>
+        <v>0.05465673235463196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01594821569222132</v>
+        <v>0.01265026647258218</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05338280380669311</v>
+        <v>0.05444304940774617</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01302122842625893</v>
+        <v>0.01177702354530557</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04175901742129064</v>
+        <v>0.04044510675519557</v>
       </c>
     </row>
     <row r="7">
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00245813838779007</v>
+        <v>0.002096852286142206</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001574123340772389</v>
+        <v>0.001569201793826693</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005234785558813597</v>
+        <v>0.005679410972952134</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001621774862426273</v>
+        <v>0.001656238546610389</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004963112425665837</v>
+        <v>0.005148179836608102</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009825185001706946</v>
+        <v>0.01110925232373058</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02377119231707372</v>
+        <v>0.0222166057476108</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0164118479283423</v>
+        <v>0.01703716484638751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03264411105420201</v>
+        <v>0.03254608947244954</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0100215353613809</v>
+        <v>0.009909017344821035</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02191670379556208</v>
+        <v>0.02190038971490233</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004152991334320922</v>
+        <v>0.003704873580632444</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0176481025644315</v>
+        <v>0.0181243836445648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01336394460131484</v>
+        <v>0.01299923115784573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02828061834677991</v>
+        <v>0.0272506208774134</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01023431135322975</v>
+        <v>0.009477392289767319</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02694020778451096</v>
+        <v>0.02641846952945183</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02118735193654316</v>
+        <v>0.01945410768438863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05392773626340699</v>
+        <v>0.0506056226618652</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03489221200321221</v>
+        <v>0.03568048297313028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05438058076388879</v>
+        <v>0.0537260406097252</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02353847270015157</v>
+        <v>0.02313461751850566</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04826592721164823</v>
+        <v>0.04685750064010143</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.05004554750748946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06292159835713693</v>
+        <v>0.06292159835713695</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03388555334190878</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.05427649629403685</v>
+        <v>0.05427649629403686</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009518672555682516</v>
+        <v>0.009464941798544639</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03119992071016183</v>
+        <v>0.03194770014589965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03477954460348683</v>
+        <v>0.03481167193553986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05001996742230074</v>
+        <v>0.04896503698203895</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02444883538378047</v>
+        <v>0.02471697776736938</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04454378768794918</v>
+        <v>0.04414379202914653</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03233691547279879</v>
+        <v>0.0305967344961471</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06423763978595746</v>
+        <v>0.06555632673146969</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06917637161800427</v>
+        <v>0.06984076761937734</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07969727460053437</v>
+        <v>0.07839524750898985</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0451978357897108</v>
+        <v>0.04510786540011222</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06625160391113219</v>
+        <v>0.06616533021183833</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0151149287449642</v>
+        <v>0.01477396620385376</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03297913912527674</v>
+        <v>0.0318449066513626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06408182928687463</v>
+        <v>0.06432325443958452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07919142991795095</v>
+        <v>0.07855396246795184</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04418696784084594</v>
+        <v>0.0446374629507747</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05899068151347162</v>
+        <v>0.05928952929075708</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05012012304966029</v>
+        <v>0.04816828871840702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06384267425662606</v>
+        <v>0.06359332523714251</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.115518299893974</v>
+        <v>0.1182303781996618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1160717711716771</v>
+        <v>0.1154321347967353</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07599461171960577</v>
+        <v>0.07582245223782492</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08333676348354292</v>
+        <v>0.08436665064172597</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.005717552112660109</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.02748703080155457</v>
+        <v>0.02748703080155456</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.07439641157308792</v>
@@ -1034,7 +1034,7 @@
         <v>0.04215141659388365</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.05755426054536588</v>
+        <v>0.05755426054536589</v>
       </c>
     </row>
     <row r="20">
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01620518387666914</v>
+        <v>0.01593999070591133</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05129403531346883</v>
+        <v>0.05068706507352591</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0686746300866503</v>
+        <v>0.06765654071716717</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02998237825733668</v>
+        <v>0.02901186825763858</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04543581251661643</v>
+        <v>0.04641578827182383</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02048183529977891</v>
+        <v>0.01943519118181917</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04455982372799728</v>
+        <v>0.04454530236032222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1076898575746401</v>
+        <v>0.1045644324950836</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1066104910059769</v>
+        <v>0.1064552034482795</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0588591555154803</v>
+        <v>0.06009472322773672</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06969599984168026</v>
+        <v>0.07147809107195492</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01918151094661301</v>
+        <v>0.01934311315036057</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02953630222742106</v>
+        <v>0.02871464605183711</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05240486893229186</v>
+        <v>0.0508406476059915</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06736642948259758</v>
+        <v>0.06841511830333001</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04295025328951919</v>
+        <v>0.04305652719759902</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05712157456317109</v>
+        <v>0.05668036684367721</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06189963648636468</v>
+        <v>0.06132037974510441</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07390229704421265</v>
+        <v>0.0716731615504964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1111751163073347</v>
+        <v>0.1114041630314258</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1075093383848878</v>
+        <v>0.1097005100582765</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08398992449415135</v>
+        <v>0.08381218857337965</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08550658555269344</v>
+        <v>0.08720632528704471</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.009904635097619702</v>
+        <v>0.0099728982461705</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02726626269664177</v>
+        <v>0.02730078498706004</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03650957297871499</v>
+        <v>0.0371807017936138</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05330342144651642</v>
+        <v>0.05337959054315472</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02518384634110131</v>
+        <v>0.0251798306923334</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04233742535129774</v>
+        <v>0.04242418755509265</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01793813577392668</v>
+        <v>0.01792978533274283</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04043864925439259</v>
+        <v>0.03995448698142614</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05146248341927408</v>
+        <v>0.05060769278017249</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06605448280872191</v>
+        <v>0.06585047341076429</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03320939766737747</v>
+        <v>0.03340262859577721</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05163180071213061</v>
+        <v>0.0511115075284987</v>
       </c>
     </row>
     <row r="28">
@@ -1443,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2513</v>
+        <v>2682</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2185</v>
+        <v>2161</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7466</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9113</v>
+        <v>7727</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22579</v>
+        <v>22289</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6312</v>
+        <v>5006</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19352</v>
+        <v>19736</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10615</v>
+        <v>9601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32167</v>
+        <v>31155</v>
       </c>
     </row>
     <row r="8">
@@ -1551,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1172</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2623</v>
+        <v>2846</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1872</v>
+        <v>1911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4854</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5802</v>
+        <v>6560</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11336</v>
+        <v>10595</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9249</v>
+        <v>9601</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16357</v>
+        <v>16308</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11565</v>
+        <v>11435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21434</v>
+        <v>21418</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2779</v>
+        <v>2479</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10936</v>
+        <v>11231</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8839</v>
+        <v>8598</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17554</v>
+        <v>16915</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13617</v>
+        <v>12610</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>33416</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14176</v>
+        <v>13017</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33417</v>
+        <v>31358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23077</v>
+        <v>23599</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33755</v>
+        <v>33349</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31318</v>
+        <v>30780</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>59868</v>
+        <v>58121</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6150</v>
+        <v>6115</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21859</v>
+        <v>22383</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22575</v>
+        <v>22595</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36769</v>
+        <v>35994</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>31664</v>
+        <v>32012</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>63952</v>
+        <v>63378</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20891</v>
+        <v>19767</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45006</v>
+        <v>45930</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44901</v>
+        <v>45332</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>58585</v>
+        <v>57628</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>58537</v>
+        <v>58420</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95118</v>
+        <v>94994</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7224</v>
+        <v>7061</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20014</v>
+        <v>19325</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>31776</v>
+        <v>31896</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>48105</v>
+        <v>47717</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>43029</v>
+        <v>43468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>71633</v>
+        <v>71995</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23953</v>
+        <v>23020</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38743</v>
+        <v>38592</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>57282</v>
+        <v>58627</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>70508</v>
+        <v>70119</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74003</v>
+        <v>73835</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>101196</v>
+        <v>102447</v>
       </c>
     </row>
     <row r="24">
@@ -1983,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6583</v>
+        <v>6475</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>19377</v>
+        <v>19148</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>30112</v>
+        <v>29666</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21350</v>
+        <v>20659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>38379</v>
+        <v>39207</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6848</v>
+        <v>6498</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18101</v>
+        <v>18095</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>40681</v>
+        <v>39500</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>46746</v>
+        <v>46678</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>41913</v>
+        <v>42793</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>58871</v>
+        <v>60377</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4930</v>
+        <v>4971</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9140</v>
+        <v>8886</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20971</v>
+        <v>20345</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>31299</v>
+        <v>31786</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28225</v>
+        <v>28295</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>44216</v>
+        <v>43874</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>15908</v>
+        <v>15759</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>22870</v>
+        <v>22180</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>44489</v>
+        <v>44580</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>49950</v>
+        <v>50968</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>55195</v>
+        <v>55079</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>66188</v>
+        <v>67504</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>33620</v>
+        <v>33852</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>96181</v>
+        <v>96303</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>129374</v>
+        <v>131752</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>198819</v>
+        <v>199103</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>174723</v>
+        <v>174696</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>307261</v>
+        <v>307890</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>60888</v>
+        <v>60860</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>142647</v>
+        <v>140939</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>182361</v>
+        <v>179332</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>246380</v>
+        <v>245619</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>230404</v>
+        <v>231745</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>374714</v>
+        <v>370938</v>
       </c>
     </row>
     <row r="36">
